--- a/data/recipe-tables.xlsx
+++ b/data/recipe-tables.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ASettle/University/recipe-database/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{010D93B7-AB7A-F547-BECF-00D77B90F046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5F3085-D324-5641-9D8E-A890203DB822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31240" yWindow="800" windowWidth="38400" windowHeight="21100" xr2:uid="{2C3B1045-9B82-AB42-894A-40C0C009013B}"/>
+    <workbookView xWindow="68640" yWindow="500" windowWidth="21600" windowHeight="21100" xr2:uid="{2C3B1045-9B82-AB42-894A-40C0C009013B}"/>
   </bookViews>
   <sheets>
     <sheet name="recipe" sheetId="1" r:id="rId1"/>
-    <sheet name="category" sheetId="2" r:id="rId2"/>
-    <sheet name="course" sheetId="3" r:id="rId3"/>
-    <sheet name="ingredients" sheetId="7" r:id="rId4"/>
-    <sheet name="quantity" sheetId="8" r:id="rId5"/>
+    <sheet name="steps" sheetId="9" r:id="rId2"/>
+    <sheet name="category" sheetId="2" r:id="rId3"/>
+    <sheet name="course" sheetId="3" r:id="rId4"/>
+    <sheet name="ingredients" sheetId="7" r:id="rId5"/>
+    <sheet name="quantity" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="157">
   <si>
     <t>recipe_id</t>
   </si>
@@ -84,6 +85,15 @@
     <t>ingredient_quantity</t>
   </si>
   <si>
+    <t>step_id</t>
+  </si>
+  <si>
+    <t>step_number</t>
+  </si>
+  <si>
+    <t>step_description</t>
+  </si>
+  <si>
     <t>Olive oil</t>
   </si>
   <si>
@@ -147,9 +157,6 @@
     <t>Baking powder</t>
   </si>
   <si>
-    <t xml:space="preserve">Soya milk </t>
-  </si>
-  <si>
     <t>Almond milk</t>
   </si>
   <si>
@@ -345,9 +352,6 @@
     <t>Handful</t>
   </si>
   <si>
-    <t>ingerdient_id</t>
-  </si>
-  <si>
     <t>ingredient_measurement</t>
   </si>
   <si>
@@ -427,13 +431,94 @@
   </si>
   <si>
     <t>lemons</t>
+  </si>
+  <si>
+    <t>Heat the oil in a large, heavy-based saucepan and fry the bacon until golden over a medium heat. Add the onions and garlic, frying until softened. Increase the heat and add the minced beef. Fry it until it has browned, breaking down any chunks of meat with a wooden spoon. Pour in the wine and boil until it has reduced in volume by about a third. Reduce the temperature and stir in the tomatoes, drained mushrooms, bay leaves, oregano, thyme and balsamic vinegar.</t>
+  </si>
+  <si>
+    <t>Either blitz the sun-dried tomatoes in a small blender with a little of the oil to loosen, or just finely chop before adding to the pan. Season well with salt and pepper. Cover with a lid and simmer the Bolognese sauce over a gentle heat for 1-1½ hours until it's rich and thickened, stirring occasionally. At the end of the cooking time, stir in the basil and add any extra seasoning if necessary.</t>
+  </si>
+  <si>
+    <t>Remove from the heat to 'settle' while you cook the spaghetti in plenty of boiling salted water (for the time stated on the packet). Drain and divide between warmed plates. Scatter a little parmesan over the spaghetti before adding a good ladleful of the Bolognese sauce, finishing with a scattering of more cheese and a twist of black pepper.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Put the flour, sugar, baking powder and salt in a bowl and mix thoroughly. Add the milk and vanilla extract and mix with a whisk until smooth. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Place a large non-stick frying pan over a medium heat. Add 2 teaspoons of the oil and wipe around the pan with a heatproof brush or carefully using a thick wad of kitchen paper. </t>
+  </si>
+  <si>
+    <t>Once the pan is hot, pour a small ladleful (around two dessert spoons) of the batter into one side of the pan and spread with the back of the spoon until around 10cm/4in in diameter. Make a second pancake in exactly the same way, greasing the pan with the remaining oil before adding the batter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cook for about a minute, or until bubbles are popping on the surface and just the edges look dry and slightly shiny. Quickly and carefully flip over and cook on the other side for a further minute, or until light, fluffy and pale golden brown. If you turn the pancakes too late, they will be too set to rise evenly. You can always flip again if you need the first side to go a little browner. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer to a plate and keep warm in a single layer (so they don’t get squished) on a baking tray in a low oven while the rest of the pancakes are cooked in exactly the same way. Serve with your preferred toppings. </t>
+  </si>
+  <si>
+    <t>Heat the oil in a non-stick frying pan over a medium heat. Add the onions and stir-fry for 15–18 minutes, or until lightly browned and crispy.</t>
+  </si>
+  <si>
+    <t>Put half the onions in a non-metallic mixing bowl with the yoghurt, ginger, garlic, chilli powder, cumin, cardamom, half of the salt, the lime juice, half of the chopped coriander and mint and the green chillies. Stir well to combine. Set aside the remaining coriander and mint for layering the biryani.</t>
+  </si>
+  <si>
+    <t>Add the lamb to the mixture and stir to coat evenly. Cover and marinade in the fridge for 6–8 hours, or overnight if possible.</t>
+  </si>
+  <si>
+    <t>Preheat the oven to 240C/Fan 220C/Gas 9.</t>
+  </si>
+  <si>
+    <t>Heat the cream and milk in a small saucepan, add the saffron, remove from the heat and leave to infuse for 30 minutes.</t>
+  </si>
+  <si>
+    <t>Cook the rice in a large saucepan in plenty of boiling water with the remaining salt for 6–8 minutes, or until it is just cooked, but still has a bite. Drain the rice.</t>
+  </si>
+  <si>
+    <t>Spread half of the lamb mixture evenly in a wide, heavy-based casserole and cover with a layer of half the rice. Sprinkle over half of the reserved onions and half of the reserved coriander and mint. Sprinkle over half of the saffron mixture. Repeat with the remaining lamb, rice, onions, herbs and saffron mixture.</t>
+  </si>
+  <si>
+    <t>Cover with a tight fitting lid, turn down the oven to 200C/Fan 180C/Gas 6 and cook for 1 hour. Remove and allow to stand for 15–20 minutes before serving. Garnish with pomegranate seeds if desired.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In a large bowl mix all the ingredients together except the rocket, then taste and adjust the seasoning, adding more salt if necessary. Toss in the rocket and serve immediately. </t>
+  </si>
+  <si>
+    <t>To make the biscuit base, finely crush the biscuits by putting into a sealed plastic bag and bashing with a rolling pin (alternatively, pulse to crumbs using a food processor). Transfer to a mixing bowl and add the sugar, cardamom and salt, stirring well to combine.</t>
+  </si>
+  <si>
+    <t>Pour the melted butter over the biscuit crumbs and mix, until thoroughly combined. Put half the crumb mixture in a 23cm/9in metal pie tin, and press evenly with your fingers. Build up the sides of the tin, compressing the base as much as possible to prevent it crumbling. Repeat with the rest of the mixture in the second tin.</t>
+  </si>
+  <si>
+    <t>Preheat the oven to 160C/325F/Gas 3. Put the pie bases in the freezer for 15 minutes. Remove and bake for 12 minutes, or until golden brown. Transfer to a wire rack to cool.</t>
+  </si>
+  <si>
+    <t>To make the filling, pour 177ml/6fl oz of cold water into a large bowl. In a separate bowl, mix the gelatine with half the sugar and sprinkle over the water. Leave to stand for a couple of minutes.</t>
+  </si>
+  <si>
+    <t>Meanwhile, whip the cream with the remaining sugar to form medium stiff peaks. Set aside.</t>
+  </si>
+  <si>
+    <t>Heat about a quarter of the mango pulp in a saucepan over a medium-low heat, until just warm. Make sure you do not boil it. Pour into the gelatine mixture and whisk, until well combined. The gelatine should dissolve completely. Gradually whisk in the remaining mango pulp.</t>
+  </si>
+  <si>
+    <t>Beat the cream cheese in a bowl, until soft and smooth. Add to the mango mixture with the salt. Blend the mixture using a hand blender, until completely smooth. Gently tap the bowl on the kitchen counter once or twice to pop any air bubbles.</t>
+  </si>
+  <si>
+    <t>Fold about a quarter of the mango mixture into the whipped cream using a spatula. Repeat with the rest of the cream, until no streaks remain.</t>
+  </si>
+  <si>
+    <t>Divide the filling between the cooled bases, using a rubber spatula to smooth out the filling. Refrigerate overnight, or for at least 5 hours, until firm and chilled.</t>
+  </si>
+  <si>
+    <t>Soya milk </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -448,6 +533,27 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -470,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -497,6 +603,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -816,7 +931,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -868,19 +983,19 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -894,19 +1009,19 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -920,19 +1035,19 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -946,19 +1061,19 @@
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -972,19 +1087,19 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1003,11 +1118,409 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7BCA32-7096-884F-89B9-A6D8B5672DF7}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADAC809-9D70-E946-80A3-A7B384091D4F}">
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="54.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>9</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7BCA32-7096-884F-89B9-A6D8B5672DF7}">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1016,7 +1529,7 @@
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1024,41 +1537,113 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>83</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D27" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FD7EFF-DEF3-6E44-B041-B4F79B5146F8}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1067,7 +1652,7 @@
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1075,57 +1660,128 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>74</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D27" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC4C9008-147A-1C47-A047-994632265275}">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1134,1427 +1790,1811 @@
     <col min="2" max="2" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
+        <v>12</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="15">
+        <v>13</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="B15" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="15">
+        <v>15</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="15">
+        <v>16</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="15">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="B18" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="15">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="B19" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="B20" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="B21" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="15">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="B22" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="15">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="B23" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="15">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="B24" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="B25" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="B26" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
+        <v>26</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="B28" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="B29" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="B30" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="B31" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="15">
+        <v>31</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="15">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="B33" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="15">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="B34" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="B35" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
+        <v>35</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="15">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="B37" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="15">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="B38" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="15">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="B39" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="15">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="B40" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="15">
         <v>40</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3" t="s">
+      <c r="B41" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="15">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="B42" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="15">
         <v>42</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3" t="s">
+      <c r="B43" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
         <v>43</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3" t="s">
+      <c r="B44" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
         <v>44</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="B45" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
         <v>45</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="B46" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="15">
         <v>46</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3" t="s">
+      <c r="B47" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="15">
         <v>47</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3" t="s">
+      <c r="B48" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="15">
         <v>48</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="B49" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="15">
         <v>49</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" s="3" t="s">
+      <c r="B50" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="15">
         <v>50</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" s="3" t="s">
+      <c r="B51" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="15">
         <v>51</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
-        <v>39</v>
-      </c>
-      <c r="B40" s="3" t="s">
+      <c r="B52" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="15">
         <v>52</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" s="3" t="s">
+      <c r="B53" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="15">
         <v>53</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" s="3" t="s">
+      <c r="B54" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="15">
         <v>54</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" s="3" t="s">
+      <c r="B55" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="15">
         <v>55</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" s="3" t="s">
+      <c r="B56" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="15">
         <v>56</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" s="3" t="s">
+      <c r="B57" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="15">
         <v>57</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
-        <v>46</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
-        <v>53</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="B58" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D4854F-98D8-954C-A3D6-8F575E3228E3}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" customWidth="1"/>
-    <col min="4" max="4" width="28.83203125" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" customWidth="1"/>
+    <col min="1" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="3">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>7</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
         <v>8</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>9</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D10" s="3">
         <v>2</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
         <v>10</v>
       </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
         <v>11</v>
       </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
         <v>12</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="3"/>
+      <c r="E13" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
         <v>13</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
         <v>14</v>
       </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
         <v>15</v>
       </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
         <v>16</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
         <v>17</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
         <v>18</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
         <v>19</v>
       </c>
-      <c r="C20" s="3">
+      <c r="D20" s="3">
         <v>125</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
         <v>20</v>
       </c>
-      <c r="C21" s="3">
+      <c r="D21" s="3">
         <v>2</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
         <v>21</v>
       </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
         <v>22</v>
       </c>
-      <c r="C23" s="3">
+      <c r="D23" s="3">
         <v>150</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
         <v>23</v>
       </c>
-      <c r="C24" s="3">
+      <c r="D24" s="3">
         <v>150</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
         <v>24</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2">
         <v>25</v>
       </c>
-      <c r="C26" s="3">
+      <c r="D26" s="3">
         <v>4</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
         <v>14</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
         <v>26</v>
       </c>
-      <c r="C28" s="3">
+      <c r="D28" s="3">
         <v>5</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" s="3">
         <v>2</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
         <v>27</v>
       </c>
-      <c r="C30" s="3">
+      <c r="D30" s="3">
         <v>200</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
         <v>28</v>
       </c>
-      <c r="C31" s="3">
+      <c r="D31" s="3">
         <v>4</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
         <v>4</v>
       </c>
-      <c r="C32" s="3">
-        <v>3</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D32" s="3">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
         <v>29</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
         <v>30</v>
       </c>
-      <c r="C34" s="3">
+      <c r="D34" s="3">
         <v>5</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
         <v>31</v>
       </c>
-      <c r="C35" s="3">
-        <v>1</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
         <v>14</v>
       </c>
-      <c r="C36" s="3">
+      <c r="D36" s="3">
         <v>4</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" s="2">
         <v>32</v>
       </c>
-      <c r="C37" s="3">
-        <v>1</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
         <v>33</v>
       </c>
-      <c r="C38" s="3">
+      <c r="D38" s="3">
         <v>30</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
         <v>34</v>
       </c>
-      <c r="C39" s="3">
+      <c r="D39" s="3">
         <v>30</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
         <v>35</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="10" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
         <v>36</v>
       </c>
-      <c r="C41" s="3">
+      <c r="D41" s="3">
         <v>800</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
         <v>37</v>
       </c>
-      <c r="C42" s="3">
+      <c r="D42" s="3">
         <v>4</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
         <v>38</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D43" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" s="2">
         <v>39</v>
       </c>
-      <c r="C44" s="3">
-        <v>1</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
         <v>40</v>
       </c>
-      <c r="C45" s="3">
+      <c r="D45" s="3">
         <v>400</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
         <v>41</v>
       </c>
-      <c r="C46" s="3">
+      <c r="D46" s="3">
         <v>2</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47">
         <v>42</v>
       </c>
-      <c r="C47" s="2">
+      <c r="D47" s="2">
         <v>225</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48">
         <v>43</v>
       </c>
-      <c r="C48" s="3">
+      <c r="D48" s="3">
         <v>8</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
         <v>44</v>
       </c>
-      <c r="C49" s="3">
+      <c r="D49" s="3">
         <v>180</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
         <v>45</v>
       </c>
-      <c r="C50" s="3">
+      <c r="D50" s="3">
         <v>120</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51" s="2">
         <v>46</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>160</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
         <v>125</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
         <v>47</v>
       </c>
-      <c r="C53" s="3">
+      <c r="D53" s="3">
         <v>60</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
         <v>4</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54">
         <v>4</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D54" s="2">
+        <v>4</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55">
         <v>48</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>4</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56">
         <v>49</v>
       </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57">
         <v>14</v>
       </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58">
         <v>50</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>80</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59">
         <v>51</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>280</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="C60">
         <v>52</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>65</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61" s="2">
         <v>53</v>
       </c>
-      <c r="C61" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D61" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62">
         <v>54</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>128</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E62" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63">
         <v>14</v>
       </c>
-      <c r="D63" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="C64">
         <v>52</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>100</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65">
         <v>55</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>2</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66">
         <v>37</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>120</v>
       </c>
-      <c r="D66" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67">
         <v>56</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>115</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68">
         <v>57</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>850</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
       <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69">
         <v>14</v>
       </c>
-      <c r="D69" s="4" t="s">
-        <v>122</v>
+      <c r="E69" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/recipe-tables.xlsx
+++ b/data/recipe-tables.xlsx
@@ -8,17 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ASettle/University/recipe-database/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5F3085-D324-5641-9D8E-A890203DB822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5EE207-6E19-D343-A120-B23F5EFC00A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68640" yWindow="500" windowWidth="21600" windowHeight="21100" xr2:uid="{2C3B1045-9B82-AB42-894A-40C0C009013B}"/>
+    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{2C3B1045-9B82-AB42-894A-40C0C009013B}"/>
   </bookViews>
   <sheets>
-    <sheet name="recipe" sheetId="1" r:id="rId1"/>
-    <sheet name="steps" sheetId="9" r:id="rId2"/>
-    <sheet name="category" sheetId="2" r:id="rId3"/>
-    <sheet name="course" sheetId="3" r:id="rId4"/>
-    <sheet name="ingredients" sheetId="7" r:id="rId5"/>
-    <sheet name="quantity" sheetId="8" r:id="rId6"/>
+    <sheet name="users" sheetId="12" r:id="rId1"/>
+    <sheet name="roles" sheetId="13" r:id="rId2"/>
+    <sheet name="recipe" sheetId="1" r:id="rId3"/>
+    <sheet name="cooking_time" sheetId="11" r:id="rId4"/>
+    <sheet name="rating" sheetId="10" r:id="rId5"/>
+    <sheet name="steps" sheetId="9" r:id="rId6"/>
+    <sheet name="category" sheetId="2" r:id="rId7"/>
+    <sheet name="course" sheetId="3" r:id="rId8"/>
+    <sheet name="ingredients" sheetId="7" r:id="rId9"/>
+    <sheet name="quantity" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="212">
   <si>
     <t>recipe_id</t>
   </si>
@@ -58,15 +62,6 @@
     <t>recipe_description</t>
   </si>
   <si>
-    <t>cuisine</t>
-  </si>
-  <si>
-    <t>prep_time</t>
-  </si>
-  <si>
-    <t>cook_time</t>
-  </si>
-  <si>
     <t>food_category_name</t>
   </si>
   <si>
@@ -301,18 +296,6 @@
     <t>sweet</t>
   </si>
   <si>
-    <t>Italian</t>
-  </si>
-  <si>
-    <t>American</t>
-  </si>
-  <si>
-    <t>Indian</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>A nutritious and satisfying vegan couscous salad packed with colour, flavour and texture, from dried cranberries, pistachios and pine nuts.</t>
   </si>
   <si>
@@ -328,27 +311,6 @@
     <t>Once you’ve got this grown-up spag bol going the hob will do the rest. Any leftovers will taste even better the next day.</t>
   </si>
   <si>
-    <t>Less than 30 minutes</t>
-  </si>
-  <si>
-    <t>1 to 2 hours</t>
-  </si>
-  <si>
-    <t>10 to 30 minutes</t>
-  </si>
-  <si>
-    <t>Overnight</t>
-  </si>
-  <si>
-    <t>Less than 10 minutes</t>
-  </si>
-  <si>
-    <t>30 minutes to 1 hour</t>
-  </si>
-  <si>
-    <t>12 to 14</t>
-  </si>
-  <si>
     <t>Handful</t>
   </si>
   <si>
@@ -373,15 +335,9 @@
     <t xml:space="preserve"> large glasses</t>
   </si>
   <si>
-    <t>2 x 400</t>
-  </si>
-  <si>
     <t>grams</t>
   </si>
   <si>
-    <t>1 x 290</t>
-  </si>
-  <si>
     <t>leaves</t>
   </si>
   <si>
@@ -394,9 +350,6 @@
     <t>drizzle</t>
   </si>
   <si>
-    <t>800 - 1</t>
-  </si>
-  <si>
     <t>lots</t>
   </si>
   <si>
@@ -415,9 +368,6 @@
     <t>pinch</t>
   </si>
   <si>
-    <t>1 to 2</t>
-  </si>
-  <si>
     <t>juice only</t>
   </si>
   <si>
@@ -512,13 +462,232 @@
   </si>
   <si>
     <t>Soya milk </t>
+  </si>
+  <si>
+    <t>rating_id</t>
+  </si>
+  <si>
+    <t>rating_measurement</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>stars</t>
+  </si>
+  <si>
+    <t>serving_size</t>
+  </si>
+  <si>
+    <t>recipe_time_id</t>
+  </si>
+  <si>
+    <t>6,7,8</t>
+  </si>
+  <si>
+    <t>time_measurement</t>
+  </si>
+  <si>
+    <t>max_cook_time</t>
+  </si>
+  <si>
+    <t>max_prep_time</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>min_prep_time</t>
+  </si>
+  <si>
+    <t>min_cook_time</t>
+  </si>
+  <si>
+    <t>max_time_to_complete</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>role_id</t>
+  </si>
+  <si>
+    <t>role_name</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Maddie</t>
+  </si>
+  <si>
+    <t>Adrianna</t>
+  </si>
+  <si>
+    <t>Marcus</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Olivia</t>
+  </si>
+  <si>
+    <t>Briony</t>
+  </si>
+  <si>
+    <t>Sabrina</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Lilianna</t>
+  </si>
+  <si>
+    <t>Adison</t>
+  </si>
+  <si>
+    <t>Higgins</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>Perkins</t>
+  </si>
+  <si>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t>Gibson</t>
+  </si>
+  <si>
+    <t>Walker</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Cole</t>
+  </si>
+  <si>
+    <t>m.higgins@randatmail.com</t>
+  </si>
+  <si>
+    <t>a.allen@randatmail.com</t>
+  </si>
+  <si>
+    <t>m.anderson@randatmail.com</t>
+  </si>
+  <si>
+    <t>c.perkins@randatmail.com</t>
+  </si>
+  <si>
+    <t>o.brooks@randatmail.com</t>
+  </si>
+  <si>
+    <t>b.gibson@randatmail.com</t>
+  </si>
+  <si>
+    <t>s.brooks@randatmail.com</t>
+  </si>
+  <si>
+    <t>m.walker@randatmail.com</t>
+  </si>
+  <si>
+    <t>l.smith@randatmail.com</t>
+  </si>
+  <si>
+    <t>a.cole@randatmail.com</t>
+  </si>
+  <si>
+    <t>maddie.higgins</t>
+  </si>
+  <si>
+    <t>adrianna.allen</t>
+  </si>
+  <si>
+    <t>marcus.anderson</t>
+  </si>
+  <si>
+    <t>carlos.perkins</t>
+  </si>
+  <si>
+    <t>olivia.brooks</t>
+  </si>
+  <si>
+    <t>briony.gibson</t>
+  </si>
+  <si>
+    <t>sabrina.brooks</t>
+  </si>
+  <si>
+    <t>martin.walker</t>
+  </si>
+  <si>
+    <t>lilianna.smith</t>
+  </si>
+  <si>
+    <t>adison.cole</t>
+  </si>
+  <si>
+    <t>$2y$15$Ar34EXs6xjpr651ZA8nzPe/rKjn9LKTXN7K7KH3CCfoS1cyWRvf.C</t>
+  </si>
+  <si>
+    <t>$2y$15$T2yyP3ZIATZsuxCo5sywQufRNDhc3BJCEF/BKY35DyfWBpMsdN8Ce</t>
+  </si>
+  <si>
+    <t>$2y$15$wl5e53ctdllHZwITI5NDHuZdl9AxeL2dCeoU5RWTnXXjSVpO4mf/a</t>
+  </si>
+  <si>
+    <t>$2y$15$3sRY/8cH26IBSSE.3wSB6uvut/gU8HwN940tUQ9YIJW44.6XbkgXm</t>
+  </si>
+  <si>
+    <t>$2y$15$ZBfViPlqermPm2tT36VTceCGAh/wQvMVnzfsAXvwWEzfHBdkrenYy</t>
+  </si>
+  <si>
+    <t>$2y$15$Dx8gGN9/KNG4ZHcfaFZ1/O2v7SBE4wk0uAtwsgt9wHN3mvy5aYCUu</t>
+  </si>
+  <si>
+    <t>$2y$15$mn6ybTxuQpVGqKvqOMwXP.0DsdY4rwmlt91V2Y888W0XuIwHYc5cC</t>
+  </si>
+  <si>
+    <t>$2y$15$JNKw1wSU3D/n2cMUNeJUfOMrSSq9VSTMjUCfXvh3CukJHSE29OFJ6</t>
+  </si>
+  <si>
+    <t>$2y$15$w38GWw8uq4VNC.zYPFc4juenHtoQCPOQBxT8z9.e1fQ9tWW2FWuxm</t>
+  </si>
+  <si>
+    <t>$2y$15$Fwz88Z/0TX3j14vyI2CJFekMglhZhM8/mAH7MddvqJtJ5HSRRPCNi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -530,6 +699,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -573,10 +750,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -590,14 +768,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -608,14 +786,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -927,11 +1107,1504 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B32C9A-9D31-D548-B0C8-AD1F481B2AB6}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="29.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="64.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="mailto:m.higgins@randatmail.com" xr:uid="{6FCFB85B-A050-9D4E-9866-3ED66990AF09}"/>
+    <hyperlink ref="E3" r:id="rId2" display="mailto:a.allen@randatmail.com" xr:uid="{CE1E4FC0-2DB6-7F49-AE47-C5DEF5740AA2}"/>
+    <hyperlink ref="E4" r:id="rId3" display="mailto:m.anderson@randatmail.com" xr:uid="{F48D6F49-58A9-A647-B766-5E2FDC8A6813}"/>
+    <hyperlink ref="E5" r:id="rId4" display="mailto:c.perkins@randatmail.com" xr:uid="{A88ADDFE-9356-A34B-A8DF-F7D5638F371E}"/>
+    <hyperlink ref="E6" r:id="rId5" display="mailto:o.brooks@randatmail.com" xr:uid="{594AB7A5-8C9E-4C48-9BBB-EC7BAD995E55}"/>
+    <hyperlink ref="E7" r:id="rId6" display="mailto:b.gibson@randatmail.com" xr:uid="{6F6626C8-9174-CC42-95AD-ADD17C323367}"/>
+    <hyperlink ref="E8" r:id="rId7" display="mailto:s.brooks@randatmail.com" xr:uid="{C679B119-B597-DA44-9E21-1FC8FE3B2B48}"/>
+    <hyperlink ref="E9" r:id="rId8" display="mailto:m.walker@randatmail.com" xr:uid="{E90F5E3B-EB40-314D-96E9-9BFC3CA0F582}"/>
+    <hyperlink ref="E10" r:id="rId9" display="mailto:l.smith@randatmail.com" xr:uid="{CFD93603-1EFE-F545-A52B-D56373CC925A}"/>
+    <hyperlink ref="E11" r:id="rId10" display="mailto:a.cole@randatmail.com" xr:uid="{C65BDAED-227C-B64E-8B3B-65A325219902}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D4854F-98D8-954C-A3D6-8F575E3228E3}">
+  <dimension ref="A1:E69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3">
+        <v>800</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3">
+        <v>290</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" s="7">
+        <v>13</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>18</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20" s="3">
+        <v>125</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23" s="3">
+        <v>150</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24" s="3">
+        <v>150</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2">
+        <v>25</v>
+      </c>
+      <c r="D26" s="3">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>14</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>26</v>
+      </c>
+      <c r="D28" s="3">
+        <v>5</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>27</v>
+      </c>
+      <c r="D30" s="3">
+        <v>200</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>28</v>
+      </c>
+      <c r="D31" s="3">
+        <v>4</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32" s="3">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>29</v>
+      </c>
+      <c r="D33" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>30</v>
+      </c>
+      <c r="D34" s="3">
+        <v>5</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>31</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>14</v>
+      </c>
+      <c r="D36" s="3">
+        <v>4</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" s="2">
+        <v>32</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>33</v>
+      </c>
+      <c r="D38" s="3">
+        <v>30</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>34</v>
+      </c>
+      <c r="D39" s="3">
+        <v>30</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>35</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>36</v>
+      </c>
+      <c r="D41" s="3">
+        <v>800</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>37</v>
+      </c>
+      <c r="D42" s="3">
+        <v>4</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>38</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" s="2">
+        <v>39</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>40</v>
+      </c>
+      <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>41</v>
+      </c>
+      <c r="D46" s="3">
+        <v>2</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>42</v>
+      </c>
+      <c r="D47" s="2">
+        <v>225</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>43</v>
+      </c>
+      <c r="D48" s="3">
+        <v>8</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>44</v>
+      </c>
+      <c r="D49" s="3">
+        <v>180</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>45</v>
+      </c>
+      <c r="D50" s="3">
+        <v>120</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51" s="2">
+        <v>46</v>
+      </c>
+      <c r="D51">
+        <v>160</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>125</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>47</v>
+      </c>
+      <c r="D53" s="3">
+        <v>60</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54" s="2">
+        <v>4</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>48</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>49</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>14</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>50</v>
+      </c>
+      <c r="D58">
+        <v>80</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>51</v>
+      </c>
+      <c r="D59">
+        <v>280</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>52</v>
+      </c>
+      <c r="D60">
+        <v>65</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61" s="2">
+        <v>53</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>54</v>
+      </c>
+      <c r="D62">
+        <v>128</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>14</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>52</v>
+      </c>
+      <c r="D64">
+        <v>100</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>55</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>37</v>
+      </c>
+      <c r="D66">
+        <v>120</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>56</v>
+      </c>
+      <c r="D67">
+        <v>115</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <v>57</v>
+      </c>
+      <c r="D68">
+        <v>850</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69">
+        <v>14</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAA86F1-3111-0C42-8A6C-6E3FBB30916D}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C0D58F-BCD3-684D-A12D-6D0C5DE84C56}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -963,14 +2636,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
@@ -983,20 +2652,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>94</v>
+        <v>75</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>96</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
@@ -1009,20 +2674,16 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>97</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
@@ -1035,20 +2696,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>92</v>
+        <v>77</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>96</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
@@ -1061,20 +2718,16 @@
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>99</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="4">
+        <v>6</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
@@ -1087,20 +2740,16 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>100</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="4">
+        <v>16</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
@@ -1117,7 +2766,288 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B238CB-A307-0B45-B59E-6C29AFD6AD5D}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="3" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="22.5" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>60</v>
+      </c>
+      <c r="F2" s="16">
+        <v>120</v>
+      </c>
+      <c r="G2">
+        <v>150</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3" s="16">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>60</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="16">
+        <v>1440</v>
+      </c>
+      <c r="D4" s="16">
+        <v>1440</v>
+      </c>
+      <c r="E4">
+        <v>60</v>
+      </c>
+      <c r="F4" s="16">
+        <v>120</v>
+      </c>
+      <c r="G4" s="16">
+        <v>1560</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="16">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="16">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>40</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6" s="16">
+        <v>60</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6" s="16">
+        <v>60</v>
+      </c>
+      <c r="G6">
+        <v>120</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0237C7E1-52F7-E745-931F-FF3F1E85620A}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6">
+        <v>4.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADAC809-9D70-E946-80A3-A7B384091D4F}">
   <dimension ref="A1:D27"/>
   <sheetViews>
@@ -1134,16 +3064,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="136" x14ac:dyDescent="0.2">
@@ -1157,7 +3087,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="119" x14ac:dyDescent="0.2">
@@ -1170,8 +3100,8 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>131</v>
+      <c r="D3" s="8" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="102" x14ac:dyDescent="0.2">
@@ -1184,8 +3114,8 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>132</v>
+      <c r="D4" s="8" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1198,8 +3128,8 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>133</v>
+      <c r="D5" s="8" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1212,8 +3142,8 @@
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>134</v>
+      <c r="D6" s="8" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -1226,8 +3156,8 @@
       <c r="C7">
         <v>3</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>135</v>
+      <c r="D7" s="8" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="119" x14ac:dyDescent="0.2">
@@ -1240,8 +3170,8 @@
       <c r="C8">
         <v>4</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>136</v>
+      <c r="D8" s="8" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="68" x14ac:dyDescent="0.2">
@@ -1254,8 +3184,8 @@
       <c r="C9">
         <v>5</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>137</v>
+      <c r="D9" s="8" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1268,8 +3198,8 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>138</v>
+      <c r="D10" s="8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -1282,8 +3212,8 @@
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>139</v>
+      <c r="D11" s="8" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1296,8 +3226,8 @@
       <c r="C12">
         <v>3</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>140</v>
+      <c r="D12" s="8" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1310,8 +3240,8 @@
       <c r="C13">
         <v>4</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>141</v>
+      <c r="D13" s="8" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1324,8 +3254,8 @@
       <c r="C14">
         <v>5</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>142</v>
+      <c r="D14" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1338,8 +3268,8 @@
       <c r="C15">
         <v>6</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>143</v>
+      <c r="D15" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="102" x14ac:dyDescent="0.2">
@@ -1352,8 +3282,8 @@
       <c r="C16">
         <v>7</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>144</v>
+      <c r="D16" s="8" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="68" x14ac:dyDescent="0.2">
@@ -1366,8 +3296,8 @@
       <c r="C17">
         <v>8</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>145</v>
+      <c r="D17" s="8" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1380,8 +3310,8 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>146</v>
+      <c r="D18" s="8" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -1394,8 +3324,8 @@
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>147</v>
+      <c r="D19" s="8" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="102" x14ac:dyDescent="0.2">
@@ -1408,8 +3338,8 @@
       <c r="C20">
         <v>2</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>148</v>
+      <c r="D20" s="8" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1422,8 +3352,8 @@
       <c r="C21">
         <v>3</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>149</v>
+      <c r="D21" s="8" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="68" x14ac:dyDescent="0.2">
@@ -1436,8 +3366,8 @@
       <c r="C22">
         <v>4</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>150</v>
+      <c r="D22" s="8" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1450,8 +3380,8 @@
       <c r="C23">
         <v>5</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>151</v>
+      <c r="D23" s="8" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -1464,8 +3394,8 @@
       <c r="C24">
         <v>6</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>152</v>
+      <c r="D24" s="8" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="68" x14ac:dyDescent="0.2">
@@ -1478,8 +3408,8 @@
       <c r="C25">
         <v>7</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>153</v>
+      <c r="D25" s="8" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1492,8 +3422,8 @@
       <c r="C26">
         <v>8</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>154</v>
+      <c r="D26" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1506,8 +3436,8 @@
       <c r="C27">
         <v>9</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>155</v>
+      <c r="D27" s="8" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1515,7 +3445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7BCA32-7096-884F-89B9-A6D8B5672DF7}">
   <dimension ref="A1:D27"/>
   <sheetViews>
@@ -1534,7 +3464,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1542,103 +3472,103 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D5" s="7"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D6" s="7"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D7" s="7"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D8" s="7"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D9" s="7"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D10" s="7"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D11" s="7"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D12" s="7"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D13" s="7"/>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D14" s="7"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D15" s="7"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D16" s="7"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D17" s="7"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D18" s="7"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D19" s="7"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D20" s="7"/>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D21" s="7"/>
+      <c r="D21" s="8"/>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D22" s="7"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D23" s="7"/>
+      <c r="D23" s="8"/>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D24" s="7"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D25" s="7"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D26" s="7"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D27" s="7"/>
+      <c r="D27" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FD7EFF-DEF3-6E44-B041-B4F79B5146F8}">
   <dimension ref="A1:D27"/>
   <sheetViews>
@@ -1657,7 +3587,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1665,118 +3595,118 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>71</v>
+      </c>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
-      <c r="D7" s="7"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
-      <c r="D8" s="7"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
-      <c r="D9" s="7"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D10" s="7"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D11" s="7"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D12" s="7"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D13" s="7"/>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D14" s="7"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D15" s="7"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D16" s="7"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D17" s="7"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D18" s="7"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D19" s="7"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D20" s="7"/>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D21" s="7"/>
+      <c r="D21" s="8"/>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D22" s="7"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D23" s="7"/>
+      <c r="D23" s="8"/>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D24" s="7"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D25" s="7"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D26" s="7"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D27" s="7"/>
+      <c r="D27" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC4C9008-147A-1C47-A047-994632265275}">
   <dimension ref="A1:E58"/>
   <sheetViews>
@@ -1792,10 +3722,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -1806,7 +3736,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -1817,7 +3747,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -1828,7 +3758,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
@@ -1839,7 +3769,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -1850,7 +3780,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -1861,7 +3791,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -1872,7 +3802,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -1883,7 +3813,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -1894,7 +3824,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -1905,7 +3835,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -1916,7 +3846,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -1927,7 +3857,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -1938,7 +3868,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -1949,7 +3879,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -1960,7 +3890,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -1971,7 +3901,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -1982,7 +3912,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -1993,7 +3923,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -2004,7 +3934,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -2015,7 +3945,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -2026,7 +3956,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -2037,7 +3967,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -2048,7 +3978,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -2059,7 +3989,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -2070,7 +4000,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -2081,7 +4011,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -2092,7 +4022,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -2103,7 +4033,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -2114,7 +4044,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
@@ -2125,7 +4055,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -2136,7 +4066,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -2147,7 +4077,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -2158,7 +4088,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
@@ -2169,7 +4099,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
@@ -2180,7 +4110,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
@@ -2191,7 +4121,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
@@ -2202,7 +4132,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
@@ -2213,7 +4143,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
@@ -2224,7 +4154,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
@@ -2235,7 +4165,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
@@ -2246,7 +4176,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
@@ -2257,7 +4187,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
@@ -2268,7 +4198,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
@@ -2279,7 +4209,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
@@ -2290,7 +4220,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
@@ -2301,7 +4231,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
@@ -2312,7 +4242,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
@@ -2323,7 +4253,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
@@ -2334,7 +4264,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
@@ -2345,7 +4275,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
@@ -2356,7 +4286,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
@@ -2367,7 +4297,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
@@ -2378,7 +4308,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
@@ -2389,7 +4319,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
@@ -2400,7 +4330,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
@@ -2411,7 +4341,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
@@ -2422,1180 +4352,11 @@
         <v>57</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D4854F-98D8-954C-A3D6-8F575E3228E3}">
-  <dimension ref="A1:E69"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" customWidth="1"/>
-    <col min="5" max="5" width="28.83203125" customWidth="1"/>
-    <col min="6" max="6" width="28.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>11</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>13</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>14</v>
-      </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>16</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>17</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>18</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>19</v>
-      </c>
-      <c r="D20" s="3">
-        <v>125</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>20</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>21</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>22</v>
-      </c>
-      <c r="D23" s="3">
-        <v>150</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>23</v>
-      </c>
-      <c r="D24" s="3">
-        <v>150</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>24</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26" s="2">
-        <v>25</v>
-      </c>
-      <c r="D26" s="3">
-        <v>4</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>14</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28">
-        <v>26</v>
-      </c>
-      <c r="D28" s="3">
-        <v>5</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29" s="3">
-        <v>2</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>27</v>
-      </c>
-      <c r="D30" s="3">
-        <v>200</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31">
-        <v>28</v>
-      </c>
-      <c r="D31" s="3">
-        <v>4</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>3</v>
-      </c>
-      <c r="C32">
-        <v>4</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
-      <c r="C33">
-        <v>29</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34">
-        <v>30</v>
-      </c>
-      <c r="D34" s="3">
-        <v>5</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-      <c r="C35">
-        <v>31</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="C36">
-        <v>14</v>
-      </c>
-      <c r="D36" s="3">
-        <v>4</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-      <c r="C37" s="2">
-        <v>32</v>
-      </c>
-      <c r="D37" s="3">
-        <v>1</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38">
-        <v>33</v>
-      </c>
-      <c r="D38" s="3">
-        <v>30</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39">
-        <v>34</v>
-      </c>
-      <c r="D39" s="3">
-        <v>30</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>3</v>
-      </c>
-      <c r="C40">
-        <v>35</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>3</v>
-      </c>
-      <c r="C41">
-        <v>36</v>
-      </c>
-      <c r="D41" s="3">
-        <v>800</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>3</v>
-      </c>
-      <c r="C42">
-        <v>37</v>
-      </c>
-      <c r="D42" s="3">
-        <v>4</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>3</v>
-      </c>
-      <c r="C43">
-        <v>38</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>3</v>
-      </c>
-      <c r="C44" s="2">
-        <v>39</v>
-      </c>
-      <c r="D44" s="3">
-        <v>1</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>3</v>
-      </c>
-      <c r="C45">
-        <v>40</v>
-      </c>
-      <c r="D45" s="3">
-        <v>400</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>3</v>
-      </c>
-      <c r="C46">
-        <v>41</v>
-      </c>
-      <c r="D46" s="3">
-        <v>2</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>4</v>
-      </c>
-      <c r="C47">
-        <v>42</v>
-      </c>
-      <c r="D47" s="2">
-        <v>225</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>4</v>
-      </c>
-      <c r="C48">
-        <v>43</v>
-      </c>
-      <c r="D48" s="3">
-        <v>8</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>4</v>
-      </c>
-      <c r="C49">
-        <v>44</v>
-      </c>
-      <c r="D49" s="3">
-        <v>180</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>4</v>
-      </c>
-      <c r="C50">
-        <v>45</v>
-      </c>
-      <c r="D50" s="3">
-        <v>120</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>4</v>
-      </c>
-      <c r="C51" s="2">
-        <v>46</v>
-      </c>
-      <c r="D51">
-        <v>160</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>4</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>125</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>4</v>
-      </c>
-      <c r="C53">
-        <v>47</v>
-      </c>
-      <c r="D53" s="3">
-        <v>60</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>4</v>
-      </c>
-      <c r="C54">
-        <v>4</v>
-      </c>
-      <c r="D54" s="2">
-        <v>4</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>4</v>
-      </c>
-      <c r="C55">
-        <v>48</v>
-      </c>
-      <c r="D55">
-        <v>4</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>4</v>
-      </c>
-      <c r="C56">
-        <v>49</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>4</v>
-      </c>
-      <c r="C57">
-        <v>14</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>4</v>
-      </c>
-      <c r="C58">
-        <v>50</v>
-      </c>
-      <c r="D58">
-        <v>80</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <v>5</v>
-      </c>
-      <c r="C59">
-        <v>51</v>
-      </c>
-      <c r="D59">
-        <v>280</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <v>5</v>
-      </c>
-      <c r="C60">
-        <v>52</v>
-      </c>
-      <c r="D60">
-        <v>65</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>5</v>
-      </c>
-      <c r="C61" s="2">
-        <v>53</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <v>5</v>
-      </c>
-      <c r="C62">
-        <v>54</v>
-      </c>
-      <c r="D62">
-        <v>128</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <v>5</v>
-      </c>
-      <c r="C63">
-        <v>14</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64">
-        <v>5</v>
-      </c>
-      <c r="C64">
-        <v>52</v>
-      </c>
-      <c r="D64">
-        <v>100</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65">
-        <v>5</v>
-      </c>
-      <c r="C65">
-        <v>55</v>
-      </c>
-      <c r="D65">
-        <v>2</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66">
-        <v>5</v>
-      </c>
-      <c r="C66">
-        <v>37</v>
-      </c>
-      <c r="D66">
-        <v>120</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67">
-        <v>5</v>
-      </c>
-      <c r="C67">
-        <v>56</v>
-      </c>
-      <c r="D67">
-        <v>115</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68">
-        <v>5</v>
-      </c>
-      <c r="C68">
-        <v>57</v>
-      </c>
-      <c r="D68">
-        <v>850</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69">
-        <v>5</v>
-      </c>
-      <c r="C69">
-        <v>14</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>123</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/recipe-tables.xlsx
+++ b/data/recipe-tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ASettle/University/recipe-database/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5EE207-6E19-D343-A120-B23F5EFC00A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E7C435-EF51-7E46-860C-2DD0815711D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{2C3B1045-9B82-AB42-894A-40C0C009013B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17080" activeTab="4" xr2:uid="{2C3B1045-9B82-AB42-894A-40C0C009013B}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="12" r:id="rId1"/>
@@ -1110,7 +1110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B32C9A-9D31-D548-B0C8-AD1F481B2AB6}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -2601,25 +2601,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C0D58F-BCD3-684D-A12D-6D0C5DE84C56}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="28.5" customWidth="1"/>
-    <col min="5" max="5" width="68" customWidth="1"/>
-    <col min="6" max="6" width="31.5" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" customWidth="1"/>
+    <col min="3" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="28.5" customWidth="1"/>
+    <col min="6" max="6" width="68" customWidth="1"/>
+    <col min="7" max="7" width="31.5" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2630,18 +2630,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2651,19 +2654,22 @@
       <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2673,19 +2679,22 @@
       <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="4">
-        <v>2</v>
-      </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4">
+        <v>2</v>
+      </c>
       <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2695,19 +2704,22 @@
       <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2717,19 +2729,22 @@
       <c r="C5" s="4">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>6</v>
       </c>
-      <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2739,19 +2754,22 @@
       <c r="C6" s="4">
         <v>3</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>16</v>
       </c>
-      <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -2760,6 +2778,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2947,98 +2966,81 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0237C7E1-52F7-E745-931F-FF3F1E85620A}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D2">
+      <c r="C2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D3">
+      <c r="C3">
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D4">
+      <c r="C4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D5">
+      <c r="C5">
         <v>4.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D6">
+      <c r="C6">
         <v>4.5</v>
       </c>
     </row>
@@ -3052,7 +3054,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
